--- a/TieuThiMinhThuong_WuKong_Testcase.xlsx
+++ b/TieuThiMinhThuong_WuKong_Testcase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE TESTER\tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE TESTER\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB986AA-97A6-4072-BAA5-46D6EAADF50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BFC4E6-905E-4C77-A0E1-B0095322052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{FA571164-5D2F-4535-AB43-87389B026F2B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>TC ID</t>
   </si>
@@ -118,20 +118,6 @@
   </si>
   <si>
     <t>Chức Năng</t>
-  </si>
-  <si>
-    <t>1.  Khởi động game WuKong
-2.  Duy chuyển nhân vật 
-3. Qua phải 2 bước
-4. Qua trái 2 bước
-5. Lùi 4 bước
-6. Tiến 5 bước</t>
-  </si>
-  <si>
-    <t>3. Nhân vật Ngộ Không duy chuyển qua phải 2 bước
-4.Nhân vật Ngộ Không qua trái 2 bước
-5.Nhân vật Ngộ Không lùi 4 bước
-6.Nhân vật Ngộ Không tiến 5 bước</t>
   </si>
   <si>
     <t>Kiểm tra chuyển động của 
@@ -151,18 +137,6 @@
     <t>3. Phản chiếu theo đúng góc độ của anh sáng, duy chuyển của nhân vật</t>
   </si>
   <si>
-    <t>Kiểm tra skill của nhân vật Ngộ Không khi lên level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Khởi động game WuKong
-2. Đang ở level 1
-3. Đánh quái cho lên level
-</t>
-  </si>
-  <si>
-    <t>3. Nhân vâtj Ngộ Không tăng lên level 2, nhân vật sẽ sáng lên và tăng 10% mới</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kiểm tra khi nhân vật Ngộ Không té ngã </t>
   </si>
   <si>
@@ -197,16 +171,6 @@
   </si>
   <si>
     <t>1. Video cốt truyện mở đầu khi vào game sẽ được hiển thị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiểm tra khi người chơi bấm skip bỏ qua video cốt truyện </t>
-  </si>
-  <si>
-    <t>1. Khởi động game Wukong
-2. Người chơi bấm skip bỏ qua video</t>
-  </si>
-  <si>
-    <t>2. Video được bỏ qua và tiến vào màng hình hướng dẫn cho người mới chơi game</t>
   </si>
   <si>
     <t>Kiểm tra hướng dẫn cho người mới chơi game Wukong</t>
@@ -488,6 +452,36 @@
   <si>
     <t>3.Vẫn có thể truy 
 cập vào game</t>
+  </si>
+  <si>
+    <t>3. Nhân vật Ngộ Không sau khi tiêu diệt thành công mini boss,sẽ nhận đc mảnh linh hồn của mini boss,có thể chọn biến hình thành mini boss đó .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Khởi động game WuKong
+3. Đánh quái nhận điểm kinh nghiệm để mở kỹ năng 
+</t>
+  </si>
+  <si>
+    <t>1.  Khởi động game WuKong
+2.  Vô cảnh Ngộ Không gặp Dương Tiễn và Tứ Đại Thiên Vương và hàng vạn thiên binh.
+3. Quan sát hình ảnh</t>
+  </si>
+  <si>
+    <t>1.  Khởi động game WuKong
+2.  Di chuyển nhân vật 
+3. Qua phải 2 bước
+4. Qua trái 2 bước
+5. Lùi 4 bước
+6. Tiến 5 bước</t>
+  </si>
+  <si>
+    <t>3. Nhân vật Ngộ Không di chuyển qua phải 2 bước
+4.Nhân vật Ngộ Không qua trái 2 bước
+5.Nhân vật Ngộ Không lùi 4 bước
+6.Nhân vật Ngộ Không tiến 5 bước</t>
+  </si>
+  <si>
+    <t>Kiểm tra skill của nhân vật Ngộ Không sau khi tiêu diệt mini boss</t>
   </si>
 </sst>
 </file>
@@ -957,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFF22C1-7AF9-4011-A910-7E758548F956}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -966,8 +960,8 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="2" width="26" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="2"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.8125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.0625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.1875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.75" style="2"/>
@@ -1056,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -1065,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="88.15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="123.4" x14ac:dyDescent="0.5">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1082,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>22</v>
@@ -1109,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1142,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1154,10 +1148,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -1166,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1178,19 +1172,19 @@
         <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="105.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="141" x14ac:dyDescent="0.5">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1202,10 +1196,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -1214,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1226,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -1238,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1250,10 +1244,10 @@
         <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -1262,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1274,35 +1268,21 @@
         <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="70.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>49</v>
-      </c>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="105.75" x14ac:dyDescent="0.5">
@@ -1310,22 +1290,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H15" s="5"/>
     </row>
@@ -1334,22 +1314,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1358,22 +1338,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -1382,7 +1362,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1394,10 +1374,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -1406,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1418,10 +1398,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1429,7 +1409,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1441,10 +1421,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1452,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -1464,10 +1444,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="88.15" x14ac:dyDescent="0.5">
@@ -1475,7 +1455,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -1487,10 +1467,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="52.9" x14ac:dyDescent="0.5">
@@ -1498,7 +1478,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -1510,10 +1490,10 @@
         <v>17</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1521,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -1533,10 +1513,10 @@
         <v>17</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1544,7 +1524,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -1556,10 +1536,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="105.75" x14ac:dyDescent="0.5">
@@ -1567,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1579,10 +1559,10 @@
         <v>17</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1590,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -1602,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1613,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -1625,10 +1605,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="88.15" x14ac:dyDescent="0.5">
@@ -1636,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -1648,10 +1628,10 @@
         <v>17</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1659,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -1671,10 +1651,10 @@
         <v>17</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="70.5" x14ac:dyDescent="0.5">
@@ -1682,7 +1662,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -1694,10 +1674,10 @@
         <v>17</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="88.15" x14ac:dyDescent="0.5">
@@ -1705,22 +1685,22 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
@@ -1728,22 +1708,22 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
@@ -1751,22 +1731,22 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
@@ -1774,22 +1754,22 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="G35" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
@@ -1797,7 +1777,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1806,13 +1786,13 @@
         <v>27</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="70.5" x14ac:dyDescent="0.5">
@@ -1820,7 +1800,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1829,13 +1809,13 @@
         <v>27</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="105.75" x14ac:dyDescent="0.5">
@@ -1843,7 +1823,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -1852,13 +1832,13 @@
         <v>27</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="105.75" x14ac:dyDescent="0.5">
@@ -1866,22 +1846,22 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
